--- a/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/liste_des_tables.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/liste_des_tables.xlsx
@@ -2,17 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="export_202410272344" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="_SELECT_t_table_schema_t_table_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">export_202410272344!$A$1:$C$61</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t xml:space="preserve">table_schema</t>
   </si>
@@ -214,13 +211,19 @@
     <t xml:space="preserve">ass_gestion_epl_ligne</t>
   </si>
   <si>
+    <t xml:space="preserve">gestion des ouvrages pluviaux linéaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_gestion_epl_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion des ouvrages pluviaux ponctuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_gestion_epl_surface</t>
+  </si>
+  <si>
     <t xml:space="preserve">gestion des ouvrages pluviaux surfaciques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_gestion_epl_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ass_gestion_epl_surface</t>
   </si>
   <si>
     <t xml:space="preserve">ass_ouvrage_special_ligne</t>
@@ -415,18 +418,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -463,16 +460,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,27 +478,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +489,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,14 +499,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="269.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -879,7 +848,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,10 +856,10 @@
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +867,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +878,10 @@
         <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +889,10 @@
         <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +900,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>15</v>
@@ -942,10 +911,10 @@
         <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>19</v>
@@ -964,21 +933,21 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,10 +955,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,7 +966,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>25</v>
@@ -1008,10 +977,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,10 +988,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,179 +999,178 @@
         <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1210,6 +1178,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/liste_des_tables.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/suite_commentaire/liste_des_tables.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
   <si>
     <t xml:space="preserve">table_schema</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t xml:space="preserve">Point de suivi remarquable du fonctionnement d'un ouvrage d'assainissement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ass_point_prelevement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement spécifique où des échantillons d'effluents sont prélevés aux fins d'analyses et de tests.</t>
   </si>
   <si>
     <t xml:space="preserve">ass_pompage</t>
@@ -323,7 +329,7 @@
     <t xml:space="preserve">ass_point_collecte</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface physique fixe en amont de laquelle le service public de l’eau n’a plus la responsabilité légale pleine et entière du service  ou des infrastructures</t>
+    <t xml:space="preserve">Interface physique fixe en amont de laquelle le service public de l’eau n’a plus la responsabilité légale pleine et entière du service ou des infrastructures</t>
   </si>
   <si>
     <t xml:space="preserve">ass_raccord</t>
@@ -401,6 +407,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,12 +467,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,688 +497,883 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="269.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="269.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="0" t="s">
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>95</v>
+      <c r="D49" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D51" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>105</v>
+      <c r="D54" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
